--- a/1_DataPreprocess/2_DemographicAndSSData/2_OutputData/Demographic_Data_Cleaned.xlsx
+++ b/1_DataPreprocess/2_DemographicAndSSData/2_OutputData/Demographic_Data_Cleaned.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">S_ID</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">pc_race_cleaned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc_race_full</t>
   </si>
   <si>
     <t xml:space="preserve">relationship</t>
@@ -101,7 +104,28 @@
     <t xml:space="preserve">Associate Degree</t>
   </si>
   <si>
+    <t xml:space="preserve">Hispanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuadorian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes and Do Not Live Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peruvian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle eastern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
   </si>
 </sst>
 </file>
@@ -470,6 +494,9 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -485,28 +512,31 @@
         <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="n">
-        <v>9.0833333333</v>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.083333333</v>
       </c>
     </row>
     <row r="3">
@@ -523,27 +553,30 @@
         <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -561,27 +594,30 @@
         <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -597,28 +633,31 @@
         <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10.333333333</v>
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.33333333</v>
       </c>
     </row>
     <row r="6">
@@ -635,27 +674,30 @@
         <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6"/>
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -671,28 +713,31 @@
         <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="n">
-        <v>3.8333333333</v>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.833333333</v>
       </c>
     </row>
     <row r="8">
@@ -709,27 +754,30 @@
         <v>261</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="n">
         <v>13</v>
       </c>
     </row>
@@ -747,28 +795,31 @@
         <v>290</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L9" t="n">
-        <v>13.333333333</v>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.33333333</v>
       </c>
     </row>
     <row r="10">
@@ -785,27 +836,30 @@
         <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -823,27 +877,30 @@
         <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="n">
         <v>10.75</v>
       </c>
     </row>
@@ -861,28 +918,31 @@
         <v>287</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
       </c>
-      <c r="L12" t="n">
-        <v>4.4166666667</v>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.416666667</v>
       </c>
     </row>
     <row r="13">
@@ -899,28 +959,31 @@
         <v>291</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="L13" t="n">
-        <v>8.4166666667</v>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.416666667</v>
       </c>
     </row>
     <row r="14">
@@ -937,27 +1000,30 @@
         <v>273</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
         <v>18</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -975,28 +1041,31 @@
         <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
         <v>18</v>
       </c>
-      <c r="L15" t="n">
-        <v>5.6666666667</v>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.666666667</v>
       </c>
     </row>
     <row r="16">
@@ -1013,27 +1082,30 @@
         <v>271</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16"/>
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1049,27 +1121,30 @@
         <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17"/>
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1085,27 +1160,30 @@
         <v>285</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18"/>
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1121,27 +1199,30 @@
         <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
         <v>18</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1157,27 +1238,30 @@
         <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
         <v>18</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1193,27 +1277,30 @@
         <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
         <v>18</v>
       </c>
-      <c r="L21"/>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1229,27 +1316,30 @@
         <v>277</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22"/>
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1265,28 +1355,31 @@
         <v>278</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
         <v>18</v>
       </c>
-      <c r="L23" t="n">
-        <v>14.166666667</v>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14.16666667</v>
       </c>
     </row>
     <row r="24">
@@ -1303,28 +1396,31 @@
         <v>279</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.3333333333</v>
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.333333333</v>
       </c>
     </row>
     <row r="25">
@@ -1341,27 +1437,30 @@
         <v>282</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" t="n">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -1379,27 +1478,30 @@
         <v>269</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26"/>
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1415,27 +1517,30 @@
         <v>266</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K27" t="s">
         <v>18</v>
       </c>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1451,27 +1556,30 @@
         <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
         <v>18</v>
       </c>
-      <c r="L28"/>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1487,28 +1595,31 @@
         <v>275</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="n">
-        <v>13.333333333</v>
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="n">
+        <v>13.33333333</v>
       </c>
     </row>
     <row r="30">
@@ -1525,27 +1636,30 @@
         <v>271</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
         <v>18</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="n">
         <v>7.25</v>
       </c>
     </row>
@@ -1563,27 +1677,30 @@
         <v>276</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
         <v>18</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1601,28 +1718,31 @@
         <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
         <v>28</v>
       </c>
-      <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
       <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.0833333333</v>
+        <v>30</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.083333333</v>
       </c>
     </row>
     <row r="33">
@@ -1639,28 +1759,31 @@
         <v>277</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.9166666667</v>
+        <v>31</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.916666667</v>
       </c>
     </row>
     <row r="34">
@@ -1677,28 +1800,31 @@
         <v>268</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" t="n">
-        <v>13.916666667</v>
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" t="n">
+        <v>13.91666667</v>
       </c>
     </row>
     <row r="35">
@@ -1715,27 +1841,30 @@
         <v>291</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K35" t="s">
         <v>18</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1753,28 +1882,31 @@
         <v>282</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
         <v>18</v>
       </c>
-      <c r="L36" t="n">
-        <v>3.4166666667</v>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.416666667</v>
       </c>
     </row>
     <row r="37">
@@ -1791,27 +1923,30 @@
         <v>271</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
         <v>26</v>
       </c>
-      <c r="J37" t="s">
-        <v>25</v>
-      </c>
       <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="n">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,28 +1964,31 @@
         <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="L38" t="n">
-        <v>3.6666666667</v>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1867,28 +2005,31 @@
         <v>279</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="n">
-        <v>8.6666666667</v>
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8.666666667</v>
       </c>
     </row>
     <row r="40">
@@ -1905,28 +2046,31 @@
         <v>273</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
         <v>18</v>
       </c>
-      <c r="L40" t="n">
-        <v>12.166666667</v>
+      <c r="L40" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" t="n">
+        <v>12.16666667</v>
       </c>
     </row>
     <row r="41">
@@ -1943,28 +2087,31 @@
         <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
         <v>18</v>
       </c>
-      <c r="L41" t="n">
-        <v>9.0833333333</v>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9.083333333</v>
       </c>
     </row>
     <row r="42">
@@ -1981,28 +2128,31 @@
         <v>275</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.0833333333</v>
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.083333333</v>
       </c>
     </row>
     <row r="43">
@@ -2019,27 +2169,30 @@
         <v>292</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
         <v>18</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2057,28 +2210,31 @@
         <v>275</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
         <v>18</v>
       </c>
-      <c r="L44" t="n">
-        <v>9.1666666667</v>
+      <c r="L44" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.166666667</v>
       </c>
     </row>
     <row r="45">
@@ -2095,27 +2251,30 @@
         <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" t="n">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -2133,28 +2292,31 @@
         <v>271</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
         <v>18</v>
       </c>
-      <c r="L46" t="n">
-        <v>5.1666666667</v>
+      <c r="L46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.166666667</v>
       </c>
     </row>
     <row r="47">
@@ -2171,28 +2333,31 @@
         <v>284</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.8333333333</v>
+        <v>33</v>
+      </c>
+      <c r="L47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.833333333</v>
       </c>
     </row>
     <row r="48">
@@ -2209,27 +2374,30 @@
         <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
         <v>18</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2247,28 +2415,31 @@
         <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
         <v>18</v>
       </c>
-      <c r="L49" t="n">
-        <v>16.333333333</v>
+      <c r="L49" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" t="n">
+        <v>16.33333333</v>
       </c>
     </row>
     <row r="50">
@@ -2285,28 +2456,31 @@
         <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
         <v>18</v>
       </c>
-      <c r="L50" t="n">
-        <v>8.9166666667</v>
+      <c r="L50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8.916666667</v>
       </c>
     </row>
     <row r="51">
@@ -2323,27 +2497,30 @@
         <v>271</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
         <v>18</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -2361,27 +2538,30 @@
         <v>274</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K52" t="s">
         <v>18</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -2399,28 +2579,31 @@
         <v>277</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K53" t="s">
         <v>18</v>
       </c>
-      <c r="L53" t="n">
-        <v>11.916666667</v>
+      <c r="L53" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" t="n">
+        <v>11.91666667</v>
       </c>
     </row>
     <row r="54">
@@ -2437,28 +2620,31 @@
         <v>287</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K54" t="s">
         <v>18</v>
       </c>
-      <c r="L54" t="n">
-        <v>7.0833333333</v>
+      <c r="L54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" t="n">
+        <v>7.083333333</v>
       </c>
     </row>
     <row r="55">
@@ -2475,28 +2661,31 @@
         <v>279</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K55" t="s">
         <v>18</v>
       </c>
-      <c r="L55" t="n">
-        <v>5.0833333333</v>
+      <c r="L55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5.083333333</v>
       </c>
     </row>
     <row r="56">
@@ -2513,28 +2702,31 @@
         <v>281</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K56" t="s">
         <v>18</v>
       </c>
-      <c r="L56" t="n">
-        <v>3.8333333333</v>
+      <c r="L56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.833333333</v>
       </c>
     </row>
     <row r="57">
@@ -2551,28 +2743,31 @@
         <v>270</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.1666666667</v>
+        <v>30</v>
+      </c>
+      <c r="L57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.166666667</v>
       </c>
     </row>
     <row r="58">
@@ -2589,28 +2784,31 @@
         <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K58" t="s">
         <v>18</v>
       </c>
-      <c r="L58" t="n">
-        <v>11.833333333</v>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" t="n">
+        <v>11.83333333</v>
       </c>
     </row>
     <row r="59">
@@ -2627,27 +2825,30 @@
         <v>277</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
       </c>
-      <c r="L59"/>
+      <c r="L59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2663,28 +2864,31 @@
         <v>273</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K60" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" t="n">
-        <v>7.8333333333</v>
+        <v>21</v>
+      </c>
+      <c r="L60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" t="n">
+        <v>7.833333333</v>
       </c>
     </row>
     <row r="61">
@@ -2701,27 +2905,30 @@
         <v>275</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61"/>
+        <v>34</v>
+      </c>
+      <c r="L61" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2737,28 +2944,31 @@
         <v>272</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" t="n">
-        <v>10.833333333</v>
+        <v>35</v>
+      </c>
+      <c r="L62" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" t="n">
+        <v>10.83333333</v>
       </c>
     </row>
     <row r="63">
@@ -2775,27 +2985,30 @@
         <v>281</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" t="n">
+        <v>26</v>
+      </c>
+      <c r="L63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M63" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2813,28 +3026,31 @@
         <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.0833333333</v>
+        <v>36</v>
+      </c>
+      <c r="L64" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" t="n">
+        <v>7.083333333</v>
       </c>
     </row>
     <row r="65">
@@ -2851,28 +3067,31 @@
         <v>268</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" t="n">
-        <v>18.083333333</v>
+        <v>21</v>
+      </c>
+      <c r="L65" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>18.08333333</v>
       </c>
     </row>
     <row r="66">
@@ -2889,28 +3108,31 @@
         <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K66" t="s">
         <v>18</v>
       </c>
-      <c r="L66" t="n">
-        <v>2.4166666667</v>
+      <c r="L66" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.416666667</v>
       </c>
     </row>
     <row r="67">
@@ -2927,27 +3149,30 @@
         <v>283</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" t="n">
+        <v>21</v>
+      </c>
+      <c r="L67" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2965,28 +3190,31 @@
         <v>285</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K68" t="s">
         <v>18</v>
       </c>
-      <c r="L68" t="n">
-        <v>5.5833333333</v>
+      <c r="L68" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5.583333333</v>
       </c>
     </row>
     <row r="69">
@@ -3003,28 +3231,31 @@
         <v>272</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K69" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" t="n">
-        <v>6.0833333333</v>
+        <v>21</v>
+      </c>
+      <c r="L69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" t="n">
+        <v>6.083333333</v>
       </c>
     </row>
     <row r="70">
@@ -3041,28 +3272,31 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K70" t="s">
         <v>18</v>
       </c>
-      <c r="L70" t="n">
-        <v>11.416666667</v>
+      <c r="L70" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" t="n">
+        <v>11.41666667</v>
       </c>
     </row>
     <row r="71">
@@ -3079,28 +3313,31 @@
         <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K71" t="s">
         <v>18</v>
       </c>
-      <c r="L71" t="n">
-        <v>4.0833333333</v>
+      <c r="L71" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4.083333333</v>
       </c>
     </row>
     <row r="72">
@@ -3117,27 +3354,30 @@
         <v>260</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K72" t="s">
         <v>18</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3155,28 +3395,31 @@
         <v>284</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K73" t="s">
         <v>18</v>
       </c>
-      <c r="L73" t="n">
-        <v>6.5833333333</v>
+      <c r="L73" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" t="n">
+        <v>6.583333333</v>
       </c>
     </row>
     <row r="74">
@@ -3193,27 +3436,30 @@
         <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K74" t="s">
         <v>18</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74" t="s">
+        <v>19</v>
+      </c>
+      <c r="M74" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -3231,27 +3477,30 @@
         <v>260</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K75" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75"/>
+        <v>18</v>
+      </c>
+      <c r="L75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3267,27 +3516,30 @@
         <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K76" t="s">
         <v>18</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3305,27 +3557,30 @@
         <v>272</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K77" t="s">
-        <v>29</v>
-      </c>
-      <c r="L77" t="n">
+        <v>21</v>
+      </c>
+      <c r="L77" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" t="n">
         <v>13.75</v>
       </c>
     </row>
@@ -3343,27 +3598,30 @@
         <v>271</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
       </c>
-      <c r="L78"/>
+      <c r="L78" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3379,28 +3637,31 @@
         <v>277</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K79" t="s">
         <v>18</v>
       </c>
-      <c r="L79" t="n">
-        <v>4.6666666667</v>
+      <c r="L79" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4.666666667</v>
       </c>
     </row>
     <row r="80">
@@ -3417,27 +3678,30 @@
         <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" t="n">
+        <v>21</v>
+      </c>
+      <c r="L80" t="s">
+        <v>19</v>
+      </c>
+      <c r="M80" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -3455,27 +3719,30 @@
         <v>268</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
       </c>
-      <c r="L81"/>
+      <c r="L81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3491,27 +3758,30 @@
         <v>287</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
         <v>21</v>
       </c>
-      <c r="L82"/>
+      <c r="L82" t="s">
+        <v>22</v>
+      </c>
+      <c r="M82"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3527,28 +3797,31 @@
         <v>276</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K83" t="s">
         <v>18</v>
       </c>
-      <c r="L83" t="n">
-        <v>6.1666666667</v>
+      <c r="L83" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" t="n">
+        <v>6.166666667</v>
       </c>
     </row>
     <row r="84">
@@ -3565,27 +3838,30 @@
         <v>282</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K84" t="s">
         <v>18</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3603,27 +3879,30 @@
         <v>286</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K85" t="s">
         <v>18</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -3641,27 +3920,30 @@
         <v>273</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86" t="n">
+        <v>21</v>
+      </c>
+      <c r="L86" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3679,27 +3961,30 @@
         <v>283</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K87" t="s">
         <v>18</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3717,27 +4002,30 @@
         <v>266</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" t="s">
         <v>24</v>
       </c>
-      <c r="I88" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" t="s">
-        <v>17</v>
-      </c>
-      <c r="K88" t="s">
-        <v>23</v>
-      </c>
-      <c r="L88"/>
+      <c r="M88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3753,28 +4041,31 @@
         <v>281</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.0833333333</v>
+        <v>21</v>
+      </c>
+      <c r="L89" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.083333333</v>
       </c>
     </row>
     <row r="90">
@@ -3791,27 +4082,30 @@
         <v>267</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K90" t="s">
         <v>18</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3829,27 +4123,30 @@
         <v>270</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K91" t="s">
-        <v>18</v>
-      </c>
-      <c r="L91" t="n">
+        <v>37</v>
+      </c>
+      <c r="L91" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3867,27 +4164,30 @@
         <v>262</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K92" t="s">
         <v>18</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L92" t="s">
+        <v>19</v>
+      </c>
+      <c r="M92" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3905,27 +4205,30 @@
         <v>287</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K93" t="s">
         <v>18</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3943,27 +4246,30 @@
         <v>277</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K94" t="s">
         <v>18</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L94" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -3981,27 +4287,30 @@
         <v>261</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K95" t="s">
         <v>18</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L95" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" t="n">
         <v>5.25</v>
       </c>
     </row>
@@ -4019,27 +4328,30 @@
         <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K96" t="s">
         <v>18</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4057,27 +4369,30 @@
         <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K97" t="s">
         <v>18</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L97" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" t="n">
         <v>13.5</v>
       </c>
     </row>
@@ -4095,27 +4410,30 @@
         <v>273</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K98" t="s">
         <v>18</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L98" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" t="n">
         <v>7</v>
       </c>
     </row>
